--- a/Data/BO SUNG.xlsx
+++ b/Data/BO SUNG.xlsx
@@ -42,7 +42,7 @@
     <t>TY_LE_THAT_NGHIEP</t>
   </si>
   <si>
-    <t>NAM_TUYENSINH</t>
+    <t>NAM</t>
   </si>
   <si>
     <t>HK1 2020-2021</t>
